--- a/04_CPlusPlus/002 构造 析构 继承 重载.xlsx
+++ b/04_CPlusPlus/002 构造 析构 继承 重载.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\04_CPlusPlus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976A617D-D7CF-4209-9844-D26C8DFB5C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2225AB-078C-4A89-9101-F058AD2EE430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4224" yWindow="1332" windowWidth="13116" windowHeight="10908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="303">
   <si>
     <t>构造函数</t>
   </si>
@@ -932,6 +932,22 @@
   </si>
   <si>
     <t>std::cout &lt;&lt; "len: " &lt;&lt; str.len &lt;&lt; std::endl;</t>
+  </si>
+  <si>
+    <t>在创建对象时，会自动调用构造函数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  即使没有，编译器也会创建空的构造函数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  用于初始化父类的数据)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>该类存在继承关系，会先执完 父类的构造函数(</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2005,15 +2021,15 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A4:N35"/>
+  <dimension ref="A4:S35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -2027,8 +2043,15 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2036,8 +2059,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -2052,8 +2082,15 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="F7" s="14" t="s">
         <v>4</v>
       </c>
@@ -2065,8 +2102,15 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
@@ -2081,8 +2125,13 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="F9" s="12" t="s">
         <v>152</v>
       </c>
@@ -2095,7 +2144,7 @@
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>156</v>
       </c>
@@ -2111,7 +2160,7 @@
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="F11" s="12" t="s">
         <v>8</v>
       </c>
@@ -2124,7 +2173,7 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>155</v>
       </c>
@@ -2140,7 +2189,7 @@
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="F13" s="12" t="s">
         <v>10</v>
       </c>
@@ -2153,7 +2202,7 @@
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>157</v>
       </c>
@@ -2171,7 +2220,7 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="F15" s="12" t="s">
         <v>12</v>
       </c>
@@ -2184,7 +2233,7 @@
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="F16" s="12" t="s">
         <v>13</v>
       </c>
@@ -2404,7 +2453,7 @@
     <hyperlink ref="F27:L35" location="练习4!A1" display="4 设计一个结构叫做MyString，要求该结构能够完成以下功能：" xr:uid="{41E7C5E0-5D35-4C13-AFAA-649C9EC30351}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3809,9 +3858,7 @@
   </sheetPr>
   <dimension ref="B3:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7075,9 +7122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFFB6D7-90D0-4D6F-B9E7-3F6375849D59}">
   <dimension ref="B3:N76"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:C56"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/04_CPlusPlus/002 构造 析构 继承 重载.xlsx
+++ b/04_CPlusPlus/002 构造 析构 继承 重载.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\04_CPlusPlus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2225AB-078C-4A89-9101-F058AD2EE430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020242F3-028C-458F-90C8-2CBBFDFFF5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -349,9 +349,6 @@
     <t>6、可以用父类指针指向子类的对象.</t>
   </si>
   <si>
-    <t>多层继承：</t>
-  </si>
-  <si>
     <t>struct X</t>
   </si>
   <si>
@@ -455,9 +452,6 @@
   </si>
   <si>
     <t>printf("%d\n",z.f);</t>
-  </si>
-  <si>
-    <t>多重继承：</t>
   </si>
   <si>
     <t>struct Y</t>
@@ -499,14 +493,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>多重继承(不推荐)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>多层继承</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>作用域解析符(::)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -947,6 +933,22 @@
   </si>
   <si>
     <t>该类存在继承关系，会先执完 父类的构造函数(</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多继承多个父类(不推荐)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多重继承</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多重继承：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多继承：</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -954,7 +956,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1010,6 +1012,13 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1123,7 +1132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1188,6 +1197,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2023,8 +2035,8 @@
   </sheetPr>
   <dimension ref="A4:S35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2044,7 +2056,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="O4" s="9" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
@@ -2060,7 +2072,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="O5" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
@@ -2083,7 +2095,7 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
@@ -2103,7 +2115,7 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
@@ -2133,7 +2145,7 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="F9" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -2146,7 +2158,7 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>7</v>
@@ -2175,7 +2187,7 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>155</v>
+        <v>299</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>9</v>
@@ -2204,7 +2216,7 @@
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -2248,7 +2260,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2468,7 +2480,7 @@
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -2485,7 +2497,7 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2517,7 +2529,7 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -2534,7 +2546,7 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -2566,7 +2578,7 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -2583,7 +2595,7 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2600,7 +2612,7 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -2647,7 +2659,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -2665,7 +2677,7 @@
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -2682,7 +2694,7 @@
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -2699,7 +2711,7 @@
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -2716,7 +2728,7 @@
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -2733,7 +2745,7 @@
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="9" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -2751,7 +2763,7 @@
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -2768,7 +2780,7 @@
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -2785,7 +2797,7 @@
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -2818,7 +2830,7 @@
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="9" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -2836,7 +2848,7 @@
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -2853,7 +2865,7 @@
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -2870,7 +2882,7 @@
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -2903,7 +2915,7 @@
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" s="9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -2921,7 +2933,7 @@
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -2938,7 +2950,7 @@
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -2955,7 +2967,7 @@
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -3003,7 +3015,7 @@
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
       <c r="C35" s="9" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -3020,7 +3032,7 @@
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
       <c r="C36" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -3038,7 +3050,7 @@
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -3055,7 +3067,7 @@
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -3103,7 +3115,7 @@
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
       <c r="C41" s="9" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -3121,7 +3133,7 @@
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -3138,7 +3150,7 @@
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -3186,7 +3198,7 @@
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="C46" s="9" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -3204,7 +3216,7 @@
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -3237,7 +3249,7 @@
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="C49" s="9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -3255,7 +3267,7 @@
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -3272,7 +3284,7 @@
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -3320,7 +3332,7 @@
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
       <c r="C54" s="9" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -3338,7 +3350,7 @@
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -3355,7 +3367,7 @@
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -3372,7 +3384,7 @@
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -3466,7 +3478,7 @@
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -3484,7 +3496,7 @@
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="C64" s="8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3501,7 +3513,7 @@
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="C65" s="8" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3518,7 +3530,7 @@
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="C66" s="8" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3535,7 +3547,7 @@
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="C67" s="8" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3552,7 +3564,7 @@
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
       <c r="C68" s="8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3569,7 +3581,7 @@
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="C69" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3586,7 +3598,7 @@
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="C70" s="8" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3679,7 +3691,7 @@
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -3696,7 +3708,7 @@
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -3728,7 +3740,7 @@
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -3745,7 +3757,7 @@
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -3762,7 +3774,7 @@
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -3779,7 +3791,7 @@
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -3796,7 +3808,7 @@
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -3813,7 +3825,7 @@
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -3830,7 +3842,7 @@
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -4011,7 +4023,7 @@
         <v>38</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
@@ -4663,7 +4675,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="L21" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
@@ -5629,13 +5641,15 @@
   </sheetPr>
   <dimension ref="B4:J71"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>106</v>
+      <c r="B4" s="22" t="s">
+        <v>301</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>73</v>
@@ -5643,7 +5657,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -5651,23 +5665,23 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
         <v>109</v>
-      </c>
-      <c r="F8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" t="s">
         <v>111</v>
-      </c>
-      <c r="F9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -5675,15 +5689,15 @@
         <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" t="s">
         <v>114</v>
-      </c>
-      <c r="F11" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -5691,20 +5705,20 @@
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" t="s">
         <v>117</v>
-      </c>
-      <c r="F13" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
@@ -5720,7 +5734,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F16" t="s">
         <v>86</v>
@@ -5733,12 +5747,12 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -5756,7 +5770,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -5767,12 +5781,12 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -5783,45 +5797,45 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="J26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -5832,12 +5846,12 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -5847,12 +5861,12 @@
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -5862,7 +5876,7 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -5872,12 +5886,12 @@
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -5887,7 +5901,7 @@
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
@@ -5897,12 +5911,12 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
@@ -5912,72 +5926,72 @@
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5996,18 +6010,20 @@
   </sheetPr>
   <dimension ref="B4:J88"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>142</v>
+      <c r="B4" s="22" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -6017,12 +6033,12 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -6032,7 +6048,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
@@ -6042,12 +6058,12 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -6057,7 +6073,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -6067,12 +6083,12 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>73</v>
@@ -6085,65 +6101,65 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F30" t="s">
         <v>85</v>
@@ -6156,7 +6172,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -6166,17 +6182,17 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F36" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -6186,12 +6202,12 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -6201,7 +6217,7 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
@@ -6211,12 +6227,12 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -6226,7 +6242,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -6236,12 +6252,12 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -6254,63 +6270,63 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F65" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
@@ -6320,7 +6336,7 @@
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F67" t="s">
         <v>86</v>
@@ -6328,12 +6344,12 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>97</v>
@@ -6341,28 +6357,28 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
@@ -6376,7 +6392,7 @@
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -6393,7 +6409,7 @@
     </row>
     <row r="81" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F81" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -6402,7 +6418,7 @@
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="6:9" x14ac:dyDescent="0.25">
@@ -6448,7 +6464,7 @@
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -6484,7 +6500,7 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -6503,7 +6519,7 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -6522,7 +6538,7 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -6541,7 +6557,7 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -6560,7 +6576,7 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -6579,7 +6595,7 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -6598,7 +6614,7 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -6634,7 +6650,7 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -6653,7 +6669,7 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="8"/>
@@ -6672,7 +6688,7 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
@@ -6691,7 +6707,7 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -6727,7 +6743,7 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -6746,7 +6762,7 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -6765,7 +6781,7 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -6784,7 +6800,7 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -6803,7 +6819,7 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -6822,7 +6838,7 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -6858,7 +6874,7 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -6877,7 +6893,7 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -6913,7 +6929,7 @@
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -6932,7 +6948,7 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -6968,7 +6984,7 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -6987,7 +7003,7 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -7006,7 +7022,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -7025,7 +7041,7 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -7061,7 +7077,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -7128,7 +7144,7 @@
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -7145,7 +7161,7 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -7177,7 +7193,7 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -7194,7 +7210,7 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -7226,7 +7242,7 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -7244,7 +7260,7 @@
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -7261,7 +7277,7 @@
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -7278,7 +7294,7 @@
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -7310,7 +7326,7 @@
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -7327,7 +7343,7 @@
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -7362,7 +7378,7 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -7379,7 +7395,7 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -7396,7 +7412,7 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -7429,7 +7445,7 @@
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -7464,7 +7480,7 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -7481,7 +7497,7 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -7498,7 +7514,7 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -7546,7 +7562,7 @@
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -7563,7 +7579,7 @@
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -7598,7 +7614,7 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -7631,7 +7647,7 @@
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -7649,7 +7665,7 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -7682,7 +7698,7 @@
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -7700,7 +7716,7 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -7733,7 +7749,7 @@
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -7751,7 +7767,7 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -7784,7 +7800,7 @@
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -7802,7 +7818,7 @@
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -7835,7 +7851,7 @@
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -7853,7 +7869,7 @@
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -7917,7 +7933,7 @@
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -7935,7 +7951,7 @@
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="C51" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -7952,7 +7968,7 @@
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="C52" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -7969,7 +7985,7 @@
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="C53" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -7986,7 +8002,7 @@
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
       <c r="C54" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -8003,7 +8019,7 @@
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="C55" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -8020,7 +8036,7 @@
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="C56" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -8037,7 +8053,7 @@
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="C57" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -8055,7 +8071,7 @@
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -8072,7 +8088,7 @@
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -8089,7 +8105,7 @@
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -8196,7 +8212,7 @@
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -8213,7 +8229,7 @@
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -8245,7 +8261,7 @@
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -8262,7 +8278,7 @@
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -8279,7 +8295,7 @@
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -8296,7 +8312,7 @@
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -8313,7 +8329,7 @@
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -8330,7 +8346,7 @@
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -8347,7 +8363,7 @@
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -8378,7 +8394,7 @@
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -8395,7 +8411,7 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -8427,7 +8443,7 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -8444,7 +8460,7 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -8476,7 +8492,7 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -8494,7 +8510,7 @@
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -8511,7 +8527,7 @@
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -8528,7 +8544,7 @@
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -8560,7 +8576,7 @@
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -8577,7 +8593,7 @@
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -8612,7 +8628,7 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -8629,7 +8645,7 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -8646,7 +8662,7 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -8679,7 +8695,7 @@
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -8714,7 +8730,7 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -8731,7 +8747,7 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -8748,7 +8764,7 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -8796,7 +8812,7 @@
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -8813,7 +8829,7 @@
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -8848,7 +8864,7 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -8881,7 +8897,7 @@
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -8899,7 +8915,7 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -8932,7 +8948,7 @@
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -8950,7 +8966,7 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -8983,7 +8999,7 @@
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -9001,7 +9017,7 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -9034,7 +9050,7 @@
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -9052,7 +9068,7 @@
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -9085,7 +9101,7 @@
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -9103,7 +9119,7 @@
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -9152,7 +9168,7 @@
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -9187,7 +9203,7 @@
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="C51" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -9204,7 +9220,7 @@
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="C52" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -9221,7 +9237,7 @@
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="C53" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -9253,7 +9269,7 @@
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="C55" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -9270,7 +9286,7 @@
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="C56" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -9288,7 +9304,7 @@
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -9305,7 +9321,7 @@
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -9322,7 +9338,7 @@
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -9355,7 +9371,7 @@
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="C61" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -9373,7 +9389,7 @@
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
@@ -9390,7 +9406,7 @@
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
@@ -9407,7 +9423,7 @@
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -9455,7 +9471,7 @@
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="C67" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -9473,7 +9489,7 @@
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -9506,7 +9522,7 @@
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="C70" s="8" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -9524,7 +9540,7 @@
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
@@ -9557,7 +9573,7 @@
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="C73" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -9575,7 +9591,7 @@
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -9608,7 +9624,7 @@
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="C76" s="8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -9626,7 +9642,7 @@
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -9659,7 +9675,7 @@
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="C79" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -9677,7 +9693,7 @@
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
@@ -9710,7 +9726,7 @@
     <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="C82" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -9728,7 +9744,7 @@
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
@@ -9807,7 +9823,7 @@
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -9825,7 +9841,7 @@
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8"/>
       <c r="C89" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
@@ -9842,7 +9858,7 @@
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="C90" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
@@ -9859,7 +9875,7 @@
     <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="C91" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -9891,7 +9907,7 @@
     <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="C93" s="9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
@@ -9909,7 +9925,7 @@
       <c r="B94" s="8"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
@@ -9926,7 +9942,7 @@
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
@@ -9943,7 +9959,7 @@
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
@@ -9960,7 +9976,7 @@
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
@@ -9977,7 +9993,7 @@
       <c r="B98" s="8"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
@@ -9994,7 +10010,7 @@
       <c r="B99" s="8"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
@@ -10025,7 +10041,7 @@
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8"/>
       <c r="C101" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
@@ -10118,7 +10134,7 @@
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -10135,7 +10151,7 @@
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
@@ -10167,7 +10183,7 @@
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
@@ -10184,7 +10200,7 @@
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -10201,7 +10217,7 @@
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -10218,7 +10234,7 @@
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -10235,7 +10251,7 @@
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -10252,7 +10268,7 @@
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -10269,7 +10285,7 @@
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
